--- a/DOM_Banner/output/dept_banner/Iyad Mansour_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Iyad Mansour_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,532 +360,246 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Brenna G. Kelly, Delaney Stratton, Iyad Mansour, Bekir Tanrıöver, Keliegh S. Culpepper, Clara Curiel‐Lewandrowski</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4282837212</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Navigating the initial diagnosis and management of adult IgA vasculitis: A review</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5083943334", "https://openalex.org/A5040669206", "https://openalex.org/A5043067239", "https://openalex.org/A5016874418", "https://openalex.org/A5073443838", "https://openalex.org/A5013049371"), au_display_name = c("Brenna G. Kelly", "Delaney Stratton", "Iyad Mansour", "Bekir Tanrıöver", "Keliegh S. Culpepper", "Clara Curiel‐Lewandrowski"), au_orcid = c("https://orcid.org/0000-0002-0081-8959", "https://orcid.org/0000-0002-3285-345X", NA, "https://orcid.org/0000-0002-2378-9302", 
-NA, "https://orcid.org/0000-0001-8982-6252"), author_position = c("first", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", "", "", ""), institution_id = c(NA, NA, NA, NA, NA, NA), institution_display_name = c(NA, NA, NA, NA, NA, NA), institution_ror = c(NA, NA, NA, NA, NA, NA), institution_country_code = c(NA, NA, NA, NA, NA, NA), institution_type = c(NA, NA, NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA, NA, NA))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>IgA vasculitis in adults has not been thoroughly studied. This has left a practice gap related to the management and follow-up of a population that is at an increased risk of comorbidities and potentially poor outcomes. For this reason, it is important to synthesize evidence from the current literature because this can help direct the movement for more robust studies to clarify best practice recommendations.We sought to create a narrative review for the practicing dermatologist when diagnosing and leading the care of IgA vasculitis in adult patients.A broad literature search was performed with a focus on articles that were published after the introduction of the most updated European Alliance of Associations for Rheumatology/Pediatric Rheumatology International Trials Organization/Pediatric Rheumatology European Society criteria.The characteristics and management guidelines for IgA vasculitis in adults have been refined, although more rigorous studies are needed to develop best practice recommendations.Because of the lack of sufficient randomized controlled trials on IgA vasculitis in adults, this narrative review is composed of mostly observational, descriptive studies.Adults with IgA vasculitis are at an increased risk of complicated disease course, necessitating formal diagnostic assessment and clear-cut follow-up recommendations to manage and prevent poor health outcomes related to various comorbidities.</t>
+          <t>2022-09-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-09-01</t>
+          <t>JAAD International</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>JAAD International</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4210208778</t>
+          <t>https://doi.org/10.1016/j.jdin.2022.05.004</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2666-3287</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35721303</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/j.jdin.2022.05.004</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>cc-by-nc-nd</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jdin.2022.05.004</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4282837212</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4282837212", doi = "https://doi.org/10.1016/j.jdin.2022.05.004", pmid = "https://pubmed.ncbi.nlm.nih.gov/35721303")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jdin.2022.05.004</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1987556350", "https://openalex.org/W1998357769", "https://openalex.org/W2030868243", "https://openalex.org/W2034894407", "https://openalex.org/W2040231529", "https://openalex.org/W2046080965", "https://openalex.org/W2047186946", "https://openalex.org/W2060609628", "https://openalex.org/W2068276794", "https://openalex.org/W2090607899", "https://openalex.org/W2096839485", "https://openalex.org/W2120069299", "https://openalex.org/W2142289433", "https://openalex.org/W2147500454", 
-"https://openalex.org/W2151704308", "https://openalex.org/W2197072548", "https://openalex.org/W2290908897", "https://openalex.org/W2461598904", "https://openalex.org/W2618285819", "https://openalex.org/W2733834843", "https://openalex.org/W2763037910", "https://openalex.org/W2763425622", "https://openalex.org/W2772792185", "https://openalex.org/W2784448875", "https://openalex.org/W2793287476", "https://openalex.org/W2794448415", "https://openalex.org/W2887490090", "https://openalex.org/W2903183696", 
-"https://openalex.org/W2956142215", "https://openalex.org/W2963841384", "https://openalex.org/W2970800687", "https://openalex.org/W2996788792", "https://openalex.org/W3009637628", "https://openalex.org/W3013802358", "https://openalex.org/W3033388441", "https://openalex.org/W3038750539", "https://openalex.org/W3039553799", "https://openalex.org/W3056798908", "https://openalex.org/W3093709289", "https://openalex.org/W3099514529", "https://openalex.org/W3102793037", "https://openalex.org/W3118876367", 
-"https://openalex.org/W3135421350", "https://openalex.org/W3147230599", "https://openalex.org/W3176815895", "https://openalex.org/W3179828483", "https://openalex.org/W3191431536", "https://openalex.org/W4233444910", "https://openalex.org/W4235122015")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4381328000", "https://openalex.org/W2109147503", "https://openalex.org/W1984720268", "https://openalex.org/W2322581019", "https://openalex.org/W2103779230", "https://openalex.org/W334096847", "https://openalex.org/W3141050733", "https://openalex.org/W2030936866", "https://openalex.org/W1533309927", "https://openalex.org/W1688175311")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Bekir Tanrıöver, Ahmet B. Gungor, Mohanad Al-Obaidi, Bijin Thajudeen, Ryan C. Wong, Iyad Mansour, Tirdad T. Zangeneh, Katherine M. Johnson, Nicole Low, Ruhaniyah Alam, E. M. González, Burhaneddin Sandıkçı, Sangeetha Muruganpandian, Gaurav Gupta, Edward J. Bedrick, Turçin Saridogan, Katherine Mendoza</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312197410</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>EFFECTIVENESS OF CASIRIVIMAB-IMDEVIMAB AND SOTROVIMAB MONOCLONAL ANTIBODY TREATMENT AMONG HIGH-RISK PATIENTS WITH SARS-CoV-2 INFECTION: A REAL-WORLD EXPERIENCE</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5016874418", "https://openalex.org/A5011527972", "https://openalex.org/A5045990380", "https://openalex.org/A5018828648", "https://openalex.org/A5014661126", "https://openalex.org/A5063588934", "https://openalex.org/A5076993071", "https://openalex.org/A5082568455", "https://openalex.org/A5000140694", "https://openalex.org/A5080536354", "https://openalex.org/A5010463505", "https://openalex.org/A5038631687", "https://openalex.org/A5081533811", "https://openalex.org/A5044372095", 
-"https://openalex.org/A5014060810", "https://openalex.org/A5017702104", "https://openalex.org/A5016503578"), au_display_name = c("Bekir Tanrıöver", "Ahmet B. Gungor", "Mohanad Al-Obaidi", "Bijin Thajudeen", "Ryan C. Wong", "Iyad Mansour", "Tirdad T. Zangeneh", "Katherine M. Johnson", "Nicole Low", "Ruhaniyah Alam", "E. M. González", "Burhaneddin Sandıkçı", "Sangeetha Muruganpandian", "Gaurav Gupta", "Edward J. Bedrick", "Turçin Saridogan", "Katherine Mendoza"), au_orcid = c("https://orcid.org/0000-0002-2378-9302", 
-NA, "https://orcid.org/0000-0002-5189-6594", NA, NA, NA, "https://orcid.org/0000-0002-9035-2952", "https://orcid.org/0000-0001-9047-9964", NA, NA, NA, "https://orcid.org/0000-0003-3202-8289", NA, "https://orcid.org/0000-0001-7941-0229", NA, "https://orcid.org/0000-0001-8659-445X", "https://orcid.org/0000-0001-9618-2336"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", 
-"last"), au_affiliation_raw = c("Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.", "Division of Nephrology, The Banner University Medical Center, Tucson, Arizona, U.S.A.", " The University of Arizona College of Medicine – Tucson: The University of Arizona College of Medicine Tucson;", "Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.", "Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.", 
-"Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.", " The University of Arizona College of Medicine – Tucson: The University of Arizona College of Medicine Tucson;", "Division of Clinical Pharmacy, The Banner University Medical Center, Tucson, Arizona, U.S.A.", "Department of Surgery, The Banner University Medical Center, Tucson, Arizona, U.S.A.", "Division of Clinical Pharmacy, The Banner University Medical Center, Tucson, Arizona, U.S.A.", "Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.", 
-" Istanbul Technical University;", "Division of Nephrology, Virginia Commonwealth University, Richmond, Virginia, U.S.A.", "Department of Epidemiology and Biostatistics, College of Public Health, The University of Arizona, Tucson, Arizona, U.S.A.", " The University of Arizona Mel and Enid Zuckerman College of Public Health;", " Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona", "Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A."
-), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I4210124665", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I4210124665", "https://openalex.org/I4210124665", "https://openalex.org/I4210124665", "https://openalex.org/I138006243", "https://openalex.org/I48912391", "https://openalex.org/I184840846", "https://openalex.org/I138006243", 
-"https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", "Banner - University Medical Center Tucson", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "Banner - University Medical Center Tucson", "Banner - University Medical Center Tucson", "Banner - University Medical Center Tucson", "University of Arizona", "Istanbul Technical University", 
-"Virginia Commonwealth University", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/02xbk5j62", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/02xbk5j62", "https://ror.org/02xbk5j62", "https://ror.org/02xbk5j62", "https://ror.org/03m2x1q45", "https://ror.org/059636586", 
-"https://ror.org/02nkdxk79", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "TR", "US", "US", "US", "US", "US"), institution_type = c("education", "healthcare", "education", "education", "education", "education", "education", "healthcare", "healthcare", "healthcare", "education", "education", "education", "education", "education", "education", 
-"education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I4210124665", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I4210124665", 
-"https://openalex.org/I4210124665", "https://openalex.org/I4210124665", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I48912391", "https://openalex.org/I184840846", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ABSTRACT BACKGROUND Severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) can evade neutralizing antibodies, raising concerns about the effectiveness of anti-spike monoclonal antibodies (mAb). METHODS This study reports a retrospective data analysis in Banner Health Care System. Out of 109,788 adult patients who tested positive for COVID-19, the study cohort was split into patients who received Casirivimab-Imdevimab (Cas-Imd) (N=10,836; Delta-predominant period 6/2021-11/2021) and Sotrovimab (N=998; Omicron-predominant period 12/2021-1/2022) mAb compared to propensity-matched control groups (N=10,836 and N=998), respectively. Index date was the date of mAb administration or the date of positive COVID-19 testing. The primary and secondary outcomes were the incidence of composite outcome (all-cause hospitalization and/or mortality) and ICU admission at 30-days following index date, respectively. RESULTS Compared to the propensity-matched untreated control cohort, the Cas-Imd mAb reduced the composite outcome (from 7.5% to 3.7%; difference: -3.8% [95% CI: (-4.4%, -3.2%)], p &amp;lt;0.01) regardless of their vaccination status, while Sotrovimab mAb did not (5.0% vs. 3.8%; difference: -1.2% [95% CI: (-3.1%, 0.7%)], p =0.22). In terms of the secondary outcome, similarly Cas-Imd mAb decreased ICU admission during the first hospitalization (from 1.5% to 0.5%; difference: -1.0% [95% CI: (-1.3%, -0.7%)], p &amp;lt;0.01) compared to the control group, whereas Sotrovimab mAb did not (0.9% vs. 0.6%; difference: -0.3% [95% CI: (-1.2%, 0.6%)], p =0.61). Comparing the periods, the Omicron-predominant period was associated with lower composite outcome than that during the Delta-predominant period. CONCLUSIONS Cas-Imd mAb was effective against the SARS-CoV-2 Delta variant, however sotrovimab lacked efficacy in patients with SARS-CoV-2 Omicron-predominant period. Key Points This retrospective propensity matched analysis showed that treatment with Cas-Imd mAb was effective against the SARS-CoV-2 Delta variant to reduce the all-cause hospitalization and mortality within 30 days, by contrast sotrovimab mAb utilization lacked the efficacy against SARS-CoV-2 Omicron variant.</t>
+          <t>2022-12-26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-12-26</t>
+          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4306400573</t>
+          <t>https://doi.org/10.1101/2022.12.23.22283921</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>cc-by-nc</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1101/2022.12.23.22283921</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>https://www.medrxiv.org/content/medrxiv/early/2022/12/26/2022.12.23.22283921.full.pdf</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>cc-by-nc</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>https://www.medrxiv.org/content/medrxiv/early/2022/12/26/2022.12.23.22283921.full.pdf</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4312197410</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4312197410", doi = "https://doi.org/10.1101/2022.12.23.22283921")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1101/2022.12.23.22283921</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W3008443627", "https://openalex.org/W3111431752", "https://openalex.org/W3198233589", "https://openalex.org/W3214796554", "https://openalex.org/W4200307715", "https://openalex.org/W4200391585", "https://openalex.org/W4207020509", "https://openalex.org/W4211242522", "https://openalex.org/W4220807057", "https://openalex.org/W4220848096", "https://openalex.org/W4220886953", "https://openalex.org/W4220904663", "https://openalex.org/W4220970752", "https://openalex.org/W4223491415", 
-"https://openalex.org/W4224232629", "https://openalex.org/W4226004814", "https://openalex.org/W4226164088", "https://openalex.org/W4226192094", "https://openalex.org/W4280528857", "https://openalex.org/W4282974695")</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4206669628", "https://openalex.org/W3196249313", "https://openalex.org/W3036305013", "https://openalex.org/W4205317059", "https://openalex.org/W2275480158", "https://openalex.org/W2603773853", "https://openalex.org/W3176864053", "https://openalex.org/W3198183218", "https://openalex.org/W4205810683", "https://openalex.org/W4224279380")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Iyad Mansour_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Iyad Mansour_2022.xlsx
@@ -442,7 +442,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brenna G. Kelly, Delaney Stratton, Iyad Mansour, Bekir Tanrıöver, Keliegh S. Culpepper, Clara Curiel‐Lewandrowski</t>
+          <t>Brenna G. Kelly, Delaney B. Stratton, Iyad Mansour, Bekir Tanrıöver, Keliegh S. Culpepper, Clara Curiel‐Lewandrowski</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Iyad Mansour_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Iyad Mansour_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4282837212</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Navigating the initial diagnosis and management of adult IgA vasculitis: A review</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>JAAD International</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jdin.2022.05.004</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35721303</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jdin.2022.05.004</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, The Banner University Medical Center, Tucson, Arizona, U.S.A.;  The University of Arizona College of Medicine – Tucson: The University of Arizona College of Medicine Tucson;; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.;  The University of Arizona College of Medicine – Tucson: The University of Arizona College of Medicine Tucson;; Division of Clinical Pharmacy, The Banner University Medical Center, Tucson, Arizona, U.S.A.; Department of Surgery, The Banner University Medical Center, Tucson, Arizona, U.S.A.; Division of Clinical Pharmacy, The Banner University Medical Center, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.;  Istanbul Technical University;; Division of Nephrology, Virginia Commonwealth University, Richmond, Virginia, U.S.A.; Department of Epidemiology and Biostatistics, College of Public Health, The University of Arizona, Tucson, Arizona, U.S.A.;  The University of Arizona Mel and Enid Zuckerman College of Public Health;;  Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312197410</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>EFFECTIVENESS OF CASIRIVIMAB-IMDEVIMAB AND SOTROVIMAB MONOCLONAL ANTIBODY TREATMENT AMONG HIGH-RISK PATIENTS WITH SARS-CoV-2 INFECTION: A REAL-WORLD EXPERIENCE</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-12-26</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.12.23.22283921</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.12.23.22283921</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
